--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_260.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_260.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,310 +488,336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -794,227 +825,225 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4861111111111112</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G', 'G', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(27.963197, 43.926916)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.272756, 18.241101)]</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1435897435897436</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.926916, 53.992766)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.065328, 27.452358)]</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1023,180 +1052,142 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.6, 32.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(44.82, 60.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
